--- a/docs/01_基本設計_crypto_exchanges_arbitrage.xlsx
+++ b/docs/01_基本設計_crypto_exchanges_arbitrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\50_crypto\exchanges-arbitrage\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F989E6B7-6919-4478-8B88-E992B1D5CAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2855407-457C-4812-8F49-A761E1F2D2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{F5B9AB9B-DE69-494F-A2B3-B19D52B2A8B5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>プログラムの構成</t>
     <rPh sb="6" eb="8">
@@ -90,8 +90,92 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>XRPに変えたら利益率は増えるか</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>btcで10分間の平均利益率を求め、同時に実行してxrpで平均利益率を求める。</t>
+    <rPh sb="6" eb="8">
+      <t>フンカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>リエキリツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="34">
+      <t>ヘイキンリエキリツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実行していると時々すごく処理時間がかかるところがある。どこで処理時間を使っているのか。
+Arbitrere.pyのl.203？</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トキドキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ショリジカン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理速度を測るメソッドを作って仕掛ける。Printする。</t>
+    <rPh sb="0" eb="4">
+      <t>ショリソクド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>APIでエントリーして、クローズするのにかかる時間を計測する。
-その時間で変化する価格をヒストグラムにする。</t>
+その時間で変化する価格をヒストグラムにする。
+→arbitrage_speed_test.pyというのがある。これを使えるか？</t>
     <rPh sb="23" eb="25">
       <t>ジカン</t>
     </rPh>
@@ -106,6 +190,50 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>カカク</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>arbitrage_depth_opportunity()の二重ループに時間がかかっていた。最高1000個のasks, bidsを確認するように制限をして速度が改善した。
+→降順に処理するとXRPで0,0が最高利益となることが多かった。なぜか。</t>
+    <rPh sb="30" eb="32">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="103" eb="107">
+      <t>サイコウリエキ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>オオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1132,7 +1260,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7265625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1160,27 +1288,39 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+    <row r="6" spans="2:6" ht="90" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6">
+        <v>44790</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>

--- a/docs/01_基本設計_crypto_exchanges_arbitrage.xlsx
+++ b/docs/01_基本設計_crypto_exchanges_arbitrage.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\50_crypto\exchanges-arbitrage\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2855407-457C-4812-8F49-A761E1F2D2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E656B1-C78B-4297-9E26-675B5D8C0185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{F5B9AB9B-DE69-494F-A2B3-B19D52B2A8B5}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラムの構成" sheetId="1" r:id="rId1"/>
-    <sheet name="実験" sheetId="2" r:id="rId2"/>
+    <sheet name="課題表" sheetId="2" r:id="rId2"/>
+    <sheet name="fee" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="163">
   <si>
     <t>プログラムの構成</t>
     <rPh sb="6" eb="8">
@@ -43,20 +45,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>実験</t>
-    <rPh sb="0" eb="2">
-      <t>ジッケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>疑問</t>
-    <rPh sb="0" eb="2">
-      <t>ギモン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>裁定機会があったとして、エントリー&amp;クローズするまでにかかる時間はどのくらいなのか。その間に裁定機会が失われてしまわないか。</t>
     <rPh sb="0" eb="4">
       <t>サイテイキカイ</t>
@@ -102,34 +90,6 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>btcで10分間の平均利益率を求め、同時に実行してxrpで平均利益率を求める。</t>
-    <rPh sb="6" eb="8">
-      <t>フンカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>リエキリツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="29" eb="34">
-      <t>ヘイキンリエキリツ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>モト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -237,12 +197,862 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>BitFlyerEUR</t>
+  </si>
+  <si>
+    <t>BitFlyerUSD</t>
+  </si>
+  <si>
+    <t>BitfinexEUR</t>
+  </si>
+  <si>
+    <t>BitfinexUSD</t>
+  </si>
+  <si>
+    <t>BitstampEUR</t>
+  </si>
+  <si>
+    <t>BitstampUSD</t>
+  </si>
+  <si>
+    <t>CampBXUSD</t>
+  </si>
+  <si>
+    <t>CEXEUR</t>
+  </si>
+  <si>
+    <t>CEXUSD</t>
+  </si>
+  <si>
+    <t>GDAXEUR</t>
+  </si>
+  <si>
+    <t>GDAXUSD</t>
+  </si>
+  <si>
+    <t>GeminiUSD</t>
+  </si>
+  <si>
+    <t>KrakenEUR</t>
+  </si>
+  <si>
+    <t>KrakenUSD</t>
+  </si>
+  <si>
+    <t>取引所・通貨</t>
+    <rPh sb="0" eb="3">
+      <t>トリヒキジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スプレッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アルゴリズム的に考慮されている</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.0004BTC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bitflyerの円の入出金手数料</t>
+    <rPh sb="9" eb="10">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウシュッキン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>テスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住信SBIの場合無料</t>
+    <rPh sb="0" eb="2">
+      <t>スミシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送付手数料</t>
+    <rPh sb="0" eb="2">
+      <t>ソウフ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入金手数料</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>770円</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>771円</t>
+  </si>
+  <si>
+    <t>出金手数料</t>
+    <rPh sb="0" eb="5">
+      <t>シュッキンテスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XRPにしてから出金すると0.1XRP</t>
+    <rPh sb="8" eb="10">
+      <t>シュッキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://bitflyer.com/ja-jp/s/commission</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.bitfinex.com/fees/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参考URL</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.00EUR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.bitstamp.net/fee-schedule/#all-trading-pairs-new</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>250円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://blog.kraken.com/trading-fees-japan/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OKCoinCNY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[期間限定]現在出金手数料は無料です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.coinbase.com/legal/fees_disclosure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PaymiumEUR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.99EUR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ETHブローカーは手数料1.49%、送付はWIREの場合</t>
+    <rPh sb="9" eb="12">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウフ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.paymium.com/page/help/fees</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://cex.io/limits-commissions</t>
+  </si>
+  <si>
+    <t>0.0005BTC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入出金手数料はツールによって異なる</t>
+    <rPh sb="0" eb="6">
+      <t>ニュウシュッキンテスウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>400円</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.01BTC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.okcoin.jp/pages/products/fees.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>API使用料</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.0001BTC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.gemini.com/fees/transfer-fee-schedule#section-deposit-fees</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスできない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それぞれの手数料はあくまで参考価格。30日前の取引金額や、取引所の料金設定の変更、入出金ツールなどにより変動する。</t>
+    <rPh sb="5" eb="8">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>サンコウカカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニチマエ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>トリヒキキンガク</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>トリヒキジョ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ニュウシュッキン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bitflyerでXRPを購入→それぞれの取引所に入金→XRPをBTCなどに変える→取引する</t>
+    <rPh sb="13" eb="15">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>トリヒキジョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トリヒキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>maker手数料</t>
+    <rPh sb="5" eb="8">
+      <t>テスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>taker手数料</t>
+    <rPh sb="5" eb="8">
+      <t>テスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使う取引所は今あるもの以外のほうが安く、利益を取りやすいのではないか？</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>トリヒキジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>課題表</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国内・海外取引所の手数料一覧を見て記録する。
+→ただし、深みにはまってしまうので、運用を始めることを最優先とする。</t>
+    <rPh sb="0" eb="2">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>トリヒキジョ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>サイユウセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>btcで10分間の平均利益率を求め、同時に実行してxrpで平均利益率を求める。
+→簡単にできるため検証する</t>
+    <rPh sb="6" eb="8">
+      <t>フンカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>リエキリツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="34">
+      <t>ヘイキンリエキリツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>課題・疑問</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理時間と裁定機会</t>
+    <rPh sb="0" eb="4">
+      <t>ショリジカン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>サイテイキカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コインはどれがベスト？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理が遅い</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引所はどれがベスト？</t>
+    <rPh sb="0" eb="3">
+      <t>トリヒキジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.2% for EUR, USD and GBP.</t>
+  </si>
+  <si>
+    <t>(0.8% - 1.2% for BTC, ETH &amp; XRP)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Uphold</t>
+  </si>
+  <si>
+    <t>0.3% for swaps</t>
+  </si>
+  <si>
+    <t>Uniswap</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes - 0.41%</t>
+  </si>
+  <si>
+    <t>0.6% + spread</t>
+  </si>
+  <si>
+    <t>swyftx</t>
+  </si>
+  <si>
+    <t>No trading fees</t>
+  </si>
+  <si>
+    <t>Shakepay</t>
+  </si>
+  <si>
+    <t>Robinhood</t>
+  </si>
+  <si>
+    <t>Buy &amp; Sell: Fixed fee ($0.99 - $2.99) or (1.5% - 1.3%)</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Poloniex</t>
+  </si>
+  <si>
+    <t>0.50 Fixed fee or variable rate of 2.3% </t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>OKX</t>
+  </si>
+  <si>
+    <t>Luno</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Kucoin</t>
+  </si>
+  <si>
+    <t>Kraken</t>
+  </si>
+  <si>
+    <t>Yes (AUD Free)</t>
+  </si>
+  <si>
+    <t>Trade commission - 0.5%</t>
+  </si>
+  <si>
+    <t>Independent Reserve </t>
+  </si>
+  <si>
+    <t>IDEX</t>
+  </si>
+  <si>
+    <t>Huboi</t>
+  </si>
+  <si>
+    <t>HitBTC</t>
+  </si>
+  <si>
+    <t>The greater of flat fee ($0.99, $1.49, $1.99 &amp; $2.99) or 1.49% </t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>Gate.io</t>
+  </si>
+  <si>
+    <t>FTX</t>
+  </si>
+  <si>
+    <t>Yes - 0.75%</t>
+  </si>
+  <si>
+    <t>eToro</t>
+  </si>
+  <si>
+    <t>HIgher of 0.3% or Gas cost</t>
+  </si>
+  <si>
+    <t>dYdX</t>
+  </si>
+  <si>
+    <t>crypto.com</t>
+  </si>
+  <si>
+    <t>Coinspot</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sell: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>XBX Index average +  2% (standard deviation) + 0.1% - 0.9% sell fee</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Buy: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>XBX Index average +  2% (standard deviation)</t>
+    </r>
+  </si>
+  <si>
+    <t>Coinmama</t>
+  </si>
+  <si>
+    <t>Coinbase Pro</t>
+  </si>
+  <si>
+    <t>1.00% crypto</t>
+  </si>
+  <si>
+    <t>~0.50% fiat</t>
+  </si>
+  <si>
+    <t>The greater of flat fee ($1.49, $1.99 &amp; $2.99) or 1.49% </t>
+  </si>
+  <si>
+    <t>Coinbase</t>
+  </si>
+  <si>
+    <t>CEX.IO</t>
+  </si>
+  <si>
+    <t>Service fee + additional fee (Exact fees are not disclosed on the website)</t>
+  </si>
+  <si>
+    <t>Cash App</t>
+  </si>
+  <si>
+    <t>0.075%</t>
+  </si>
+  <si>
+    <t>-0.025% (Rebate)</t>
+  </si>
+  <si>
+    <t>Bybit.com</t>
+  </si>
+  <si>
+    <t>BTC Markets</t>
+  </si>
+  <si>
+    <t>Blockchain.com</t>
+  </si>
+  <si>
+    <t>BlockFi</t>
+  </si>
+  <si>
+    <t>Bitpanda pro</t>
+  </si>
+  <si>
+    <t>Bitmex</t>
+  </si>
+  <si>
+    <t>Bittrex</t>
+  </si>
+  <si>
+    <t>Bitstamp</t>
+  </si>
+  <si>
+    <t>Bitfinex</t>
+  </si>
+  <si>
+    <r>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> - 25%</t>
+    </r>
+  </si>
+  <si>
+    <t>Binance.com</t>
+  </si>
+  <si>
+    <t>Binance.us</t>
+  </si>
+  <si>
+    <t>Bibox</t>
+  </si>
+  <si>
+    <t>Volume Discount</t>
+  </si>
+  <si>
+    <t>Exchange Token Discount</t>
+  </si>
+  <si>
+    <t>Withdrawals</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Taker</t>
+  </si>
+  <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>Funding Fees</t>
+  </si>
+  <si>
+    <t>Trading Fees</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>profitを正確に求める</t>
+    <rPh sb="7" eb="9">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手数料を加味してprofitを正確に求める。</t>
+    <rPh sb="0" eb="3">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第一段階として、固定の手数料をエクセルから読み込んで使う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>固定の手数料で対応終了。</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>タイオウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BTC、XRP、ETHを試したがどれも大きく変わらなかった。取り扱っている取引所が最も多いBTCでいいのではないか。</t>
+    <rPh sb="12" eb="13">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>トリヒキジョ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +1088,71 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF14171A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF14171A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +1165,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -325,16 +1222,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,8 +1410,175 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
+    <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1257,157 +2478,2290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9966515-191C-45AC-81C5-083260266C93}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7265625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="34.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.81640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="6">
+        <v>44792</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="90" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="90" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="6">
+        <v>44790</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6">
-        <v>44790</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="6">
+        <v>44792</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>17</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A535566B-5264-4346-8265-C516C95E9830}">
+  <dimension ref="B1:K38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="7"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="7"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F11" s="16">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E14" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E15" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1.49E-2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1.49E-2</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="E18" s="16">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E19" s="16">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E20" s="16">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="16">
+        <v>-1E-3</v>
+      </c>
+      <c r="E22" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{F25E68A2-53D7-4DE0-AF7A-68C5CEE4744C}"/>
+    <hyperlink ref="K8" r:id="rId2" xr:uid="{726C0F04-2E5B-4E23-9F13-5B225843E0F2}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{EB14A2BB-FDC8-49EF-B4AD-9C8FFCFEC3B7}"/>
+    <hyperlink ref="K10" r:id="rId4" xr:uid="{102F7F50-2F35-409E-B4E2-D5C505DE3202}"/>
+    <hyperlink ref="K11" r:id="rId5" location="all-trading-pairs-new" xr:uid="{0645AA42-9449-4A34-95DA-FBA28FF10318}"/>
+    <hyperlink ref="K12" r:id="rId6" location="all-trading-pairs-new" xr:uid="{F4F6247B-FCD7-4E1A-9931-0C497BDCFD18}"/>
+    <hyperlink ref="K19" r:id="rId7" xr:uid="{1A9BC894-72BA-4333-BA58-C49E9552D93A}"/>
+    <hyperlink ref="K20" r:id="rId8" xr:uid="{1D097556-4424-4CF4-B188-DDC5E5EB1C4B}"/>
+    <hyperlink ref="K16" r:id="rId9" xr:uid="{75CF031D-FD22-4FF4-845E-63C40DD060BC}"/>
+    <hyperlink ref="K22" r:id="rId10" xr:uid="{D03011AA-D09F-4D44-9DAA-EFBDEE3C5225}"/>
+    <hyperlink ref="K17" r:id="rId11" xr:uid="{C2DE9349-13D4-49E5-80C5-6A925593E4DD}"/>
+    <hyperlink ref="K21" r:id="rId12" xr:uid="{4802707E-1104-4275-AC91-CCAA46F19388}"/>
+    <hyperlink ref="K18" r:id="rId13" location="section-deposit-fees" xr:uid="{28039C73-EFA9-47D7-BBAC-28755D2A98DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E805A130-7D80-4E57-9BF7-FEF1C6EB2C8C}">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="24">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="C3" s="24">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="24">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="C8" s="24">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C9" s="24">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="C12" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="24">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="24">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="C16" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="40"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40"/>
+      <c r="B21" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="24">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C26" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="C27" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="C30" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="24">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="C33" s="24">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C34" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="24">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="C35" s="24">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="25">
+        <v>0</v>
+      </c>
+      <c r="C36" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C37" s="24">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="24">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C39" s="24">
+        <v>1.25E-3</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="40"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A47" s="61"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="61"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+    </row>
+    <row r="49" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="40"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://bibox.zendesk.com/hc/en-us/articles/360002336133-New-Fee-Structure-on-Bibox" xr:uid="{6FE098F0-B609-49FB-AF46-A53588898EE3}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.binance.us/en/fee/schedule" xr:uid="{535A1F78-6F72-48F5-88D8-7775EA217055}"/>
+    <hyperlink ref="G4" r:id="rId3" display="https://support.binance.us/hc/en-us/articles/360046786894-Using-BNB-to-Pay-for-Fees" xr:uid="{C817FCFB-61B1-4015-A0ED-9A64C03AF3B4}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.binance.com/en/fee/schedule" xr:uid="{835E8321-0E1C-4AA6-9DF1-01BC4FDA9DD4}"/>
+    <hyperlink ref="G5" r:id="rId5" display="https://www.binance.com/en/fee/schedule" xr:uid="{5EA57A05-6D80-4C17-A855-9B19D9042073}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.bitfinex.com/fees" xr:uid="{71F64A7C-F1C1-4D21-977C-E97DAD78BC9B}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://www.bitstamp.net/fee_schedule/" xr:uid="{F1985546-C022-4302-8E48-80AE9C66EF17}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://bittrex.zendesk.com/hc/en-us/articles/115000199651-What-fees-does-Bittrex-charge-" xr:uid="{6B34C7F5-3CED-4AF6-9124-B651FCB7FBA5}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://www.bitmex.com/app/fees" xr:uid="{DD13A55F-3B69-4DCB-B9AE-8005687F09C7}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://www.bitpanda.com/en/pro/fees" xr:uid="{6E922D83-6C2E-48DE-9FA9-E1D8B54D8D25}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://blockfi.com/rates" xr:uid="{A74648D1-18AD-449A-B69D-F992670763F6}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://exchange-support.blockchain.com/hc/en-us/articles/360031142571-Trading-Fees" xr:uid="{3CFFC3A1-F590-4650-94C8-95B49A895794}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://www.btcmarkets.net/fees" xr:uid="{F6FC54D2-C0F9-4244-9295-05FFEE32F6DE}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://blog.bybitglobal.com/learn/bybit-101/how-much-trading-fees-do-i-pay/" xr:uid="{50DF3627-E691-469F-8849-7F3837EABCE6}"/>
+    <hyperlink ref="A15" r:id="rId15" display="https://cash.app/help/us/en-us/3103-bitcoin-fees" xr:uid="{5F54AB74-15AA-4BF2-8A48-6D36852FB295}"/>
+    <hyperlink ref="A16" r:id="rId16" display="https://cex.io/fee-schedule" xr:uid="{5FE88176-4D0D-4A3C-923B-D8470299BCDF}"/>
+    <hyperlink ref="A17" r:id="rId17" display="https://support.coinbase.com/customer/en/portal/articles/2109597-coinbase-pricing-fees-disclosures" xr:uid="{CD5242FB-16E6-4820-A58C-7C1CF838F00C}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://pro.coinbase.com/fees" xr:uid="{006268A1-DDE3-49D0-BC08-7719FE300DDA}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://support.coinmama.com/hc/en-us/articles/360012659019-Fees-Charges" xr:uid="{D551D938-3E4C-450D-8C8D-1D26C4AAF6EE}"/>
+    <hyperlink ref="B20" r:id="rId20" display="https://tradeblock.com/markets/index" xr:uid="{FA65A1C1-B9C5-4BA9-A8D1-BE63E137F6C9}"/>
+    <hyperlink ref="B21" r:id="rId21" display="https://tradeblock.com/markets/index" xr:uid="{4B02CEBA-81DE-4586-97A4-8A0AC9B5AB85}"/>
+    <hyperlink ref="A22" r:id="rId22" display="https://www.coinspot.com.au/fees" xr:uid="{CF01F842-EF03-42A9-ADF5-9D3FB0580698}"/>
+    <hyperlink ref="A23" r:id="rId23" display="https://crypto.com/exchange/document/fees-limits" xr:uid="{183746CD-BAF3-4006-A97D-D79F6ECECE93}"/>
+    <hyperlink ref="A24" r:id="rId24" display="https://help.dydx.exchange/en/articles/3784235-trade-fees-on-dydx" xr:uid="{6C06E493-5A54-4AE4-8F27-6EADCFA74609}"/>
+    <hyperlink ref="A25" r:id="rId25" display="https://www.etoro.com/en-us/trading/fees/" xr:uid="{A97DB621-7A8C-4748-A062-D32DD6FB86E1}"/>
+    <hyperlink ref="A26" r:id="rId26" display="https://help.ftx.com/hc/en-us/articles/360024479432-Fees" xr:uid="{52A9BAB1-7F79-4BF8-9A04-47F5A498D07D}"/>
+    <hyperlink ref="A27" r:id="rId27" display="https://www.gate.io/fee" xr:uid="{53E66D4E-3967-4410-9DD0-6DD7F7632E38}"/>
+    <hyperlink ref="A28" r:id="rId28" display="https://www.gemini.com/fees/web-fee-schedule" xr:uid="{AF9B9447-45E9-4614-AC12-6A94E8FAE920}"/>
+    <hyperlink ref="A29" r:id="rId29" display="https://hitbtc.com/fee-tier" xr:uid="{1D271F12-355F-45CB-813D-8650029E77DA}"/>
+    <hyperlink ref="A30" r:id="rId30" display="https://www.huobi.com/en-us/fee/" xr:uid="{4990F323-DBD6-4F42-9848-BE31B1E6F5F3}"/>
+    <hyperlink ref="A31" r:id="rId31" display="https://exchange.idex.io/trading/QNT-ETH" xr:uid="{68CB6237-9318-4DE1-B54A-54C150D2C2A5}"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://www.independentreserve.com/help/fees" xr:uid="{8960BD03-B427-4B65-9848-8B942907F5A0}"/>
+    <hyperlink ref="A33" r:id="rId33" display="https://support.kraken.com/hc/en-us/articles/360000526126" xr:uid="{453E35C8-490A-428E-9809-B29E5A73BC63}"/>
+    <hyperlink ref="A34" r:id="rId34" display="https://www.kucoin.com/vip/level" xr:uid="{31AA8805-9178-469E-9C04-CE00A3E4CEB7}"/>
+    <hyperlink ref="A35" r:id="rId35" display="https://www.liquid.com/fees/" xr:uid="{E3BE5A55-89E8-44B8-9DD4-50AF9BE52D92}"/>
+    <hyperlink ref="A36" r:id="rId36" display="https://www.luno.com/en/countries/AU" xr:uid="{74EC4F78-A198-432C-8FF7-5279B0541F6A}"/>
+    <hyperlink ref="A37" r:id="rId37" display="https://www.okx.com/fees.html" xr:uid="{8397D44A-040E-4EA7-9F52-9B0B6A16EA1C}"/>
+    <hyperlink ref="A38" r:id="rId38" display="https://www.paypal.com/en/webapps/mpp/paypal-fees" xr:uid="{69B0723D-4617-4384-856F-26E7101874F7}"/>
+    <hyperlink ref="A39" r:id="rId39" display="https://support.poloniex.com/hc/en-us/articles/360039490434-Fee-Structure" xr:uid="{728265FC-7948-4EC2-9742-345517483E5D}"/>
+    <hyperlink ref="A40" r:id="rId40" display="https://river.com/support/knowledge-base/articles/fee-schedule" xr:uid="{75A086B5-D510-4973-A961-B25549403AD5}"/>
+    <hyperlink ref="A42" r:id="rId41" display="https://robinhood.com/us/en/support/articles/trading-fees-on-robinhood/" xr:uid="{DA312178-C65F-4680-9469-A9F0F5E2F3C5}"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://shakepay.co/fees" xr:uid="{2D8A00D3-288A-47B3-8775-D722ED20AA95}"/>
+    <hyperlink ref="B43" r:id="rId43" display="https://help.shakepay.com/en/articles/3171250-how-does-shakepay-make-money" xr:uid="{B0BA5A88-F66E-4CA0-9C62-76CD7F241E92}"/>
+    <hyperlink ref="A44" r:id="rId44" display="https://swyftx.com.au/fees/" xr:uid="{7238B684-092E-4953-9D6A-65CB21EF0BBE}"/>
+    <hyperlink ref="A45" r:id="rId45" display="https://uniswap.org/docs/v2/advanced-topics/fees/" xr:uid="{23CB7C9C-7AE3-4F7A-AE65-F6E335557E65}"/>
+    <hyperlink ref="A46" r:id="rId46" display="https://uphold.com/en/pricing" xr:uid="{55597278-6EAB-4851-9596-39CD3CFB9960}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/01_基本設計_crypto_exchanges_arbitrage.xlsx
+++ b/docs/01_基本設計_crypto_exchanges_arbitrage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\50_crypto\exchanges-arbitrage\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E656B1-C78B-4297-9E26-675B5D8C0185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EFF506-46CF-4CE8-B3B0-8D335F046287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{F5B9AB9B-DE69-494F-A2B3-B19D52B2A8B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{F5B9AB9B-DE69-494F-A2B3-B19D52B2A8B5}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラムの構成" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="186">
   <si>
     <t>プログラムの構成</t>
     <rPh sb="6" eb="8">
@@ -67,13 +67,6 @@
     <t>検証方法</t>
     <rPh sb="0" eb="4">
       <t>ケンショウホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検証日</t>
-    <rPh sb="0" eb="3">
-      <t>ケンショウビ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -550,13 +543,6 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>優先度</t>
-    <rPh sb="0" eb="3">
-      <t>ユウセンド</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1044,6 +1030,198 @@
     </rPh>
     <rPh sb="43" eb="44">
       <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>self.symbolはtarget_coinとは違うのか？何が入っている？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>self.symbol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>btcusdなどのtarget_coin+usdが入っていた。これは対処済み。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了日</t>
+    <rPh sb="0" eb="3">
+      <t>カンリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要度</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実際に取引できるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トリヒキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今実装されている取引所でorderできるようにする。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トリヒキジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引実装の明文化</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>メイブンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>opportunity()やexecute_trade()をどう実装するか検討。テキストにする。</t>
+    <rPh sb="32" eb="34">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>裁定機会がある場合、observer.opportunity()が実行される。これは抽象メソッドで、TraderBot.opportunity()に継承すると取引できそう。</t>
+    <rPh sb="0" eb="4">
+      <t>サイテイキカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>チュウショウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>トリヒキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通API</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要なメソッド</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>buy(volume, buyprice)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sell(volume, sellprice)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>usd_balance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>btc_balance</t>
+  </si>
+  <si>
+    <t>get_info()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>values()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>買いを出す</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売りを出す</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>usd残高を返す</t>
+    <rPh sb="3" eb="5">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>btc残高を返す</t>
+    <rPh sb="3" eb="5">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selfにusd_balanceとbtc_balanceを代入する</t>
+    <rPh sb="29" eb="31">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dict型のvalues()メソッド。さらに.usd_balanceと.btc_balanceができる。</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1560,6 +1738,12 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1568,12 +1752,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1788,205 +1966,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="グループ化 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E71A58E-137C-40EF-9782-402842D987F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="655320" y="2887980"/>
-          <a:ext cx="3131820" cy="1493520"/>
-          <a:chOff x="708660" y="998220"/>
-          <a:chExt cx="3131820" cy="1493520"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FCBEA9-83B5-157B-FDAF-DA6EB9641A25}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="708660" y="1295400"/>
-            <a:ext cx="3131820" cy="1196340"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>観測対象の市場すべての組み合わせで、</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ask &lt; bid</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>となるような市場の組み合わせを見つけて、</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>self.arbitrage_oppotunity</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>に格納する</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F12D56-94E0-A8E7-8BB0-493741B2D4BF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="708660" y="998220"/>
-            <a:ext cx="3131820" cy="297180"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>arbitrer.py</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t> tick()</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2001,7 +1990,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5273040" y="2918460"/>
+          <a:off x="5196840" y="944880"/>
           <a:ext cx="3268980" cy="1882140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2455,10 +2444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC4022B-8E47-478A-B3E8-628CEB3F07A4}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.26953125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2469,6 +2458,64 @@
       </c>
     </row>
     <row r="3" spans="2:2" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="M24" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2478,10 +2525,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9966515-191C-45AC-81C5-083260266C93}">
-  <dimension ref="B2:H20"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7265625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2495,165 +2545,202 @@
     <col min="8" max="8" width="32.81640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+    <row r="1" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="6">
+        <v>44792</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="90" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="2:8" ht="75" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G5" s="6">
+        <v>44790</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="6">
         <v>44792</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="90" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="6">
-        <v>44790</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="G8" s="6">
-        <v>44792</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>44789</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="60" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="6">
+        <v>44800</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2664,7 +2751,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2675,7 +2762,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2686,7 +2773,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2697,7 +2784,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2708,7 +2795,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2719,7 +2806,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2730,7 +2817,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2741,7 +2828,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2749,17 +2836,6 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2791,16 +2867,16 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
       <c r="I1"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7"/>
       <c r="I2"/>
@@ -2811,7 +2887,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7"/>
       <c r="I4"/>
@@ -2822,42 +2898,42 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="12">
         <v>1.5E-3</v>
@@ -2866,28 +2942,28 @@
         <v>1.5E-3</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="14">
         <v>0</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="12">
         <v>1.5E-3</v>
@@ -2896,28 +2972,28 @@
         <v>1.5E-3</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="14">
         <v>0</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="16">
         <v>1E-3</v>
@@ -2932,24 +3008,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="16">
         <v>1E-3</v>
@@ -2964,24 +3040,24 @@
         <v>0</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="17">
         <v>0</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="16">
         <v>3.0000000000000001E-3</v>
@@ -2996,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="14">
         <v>0</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="16">
         <v>3.0000000000000001E-3</v>
@@ -3026,52 +3102,52 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="14">
         <v>0</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="16">
         <v>1.9E-3</v>
@@ -3080,7 +3156,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="14">
         <v>0</v>
@@ -3092,18 +3168,18 @@
         <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="16">
         <v>1.9E-3</v>
@@ -3112,7 +3188,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="14">
         <v>0</v>
@@ -3124,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="16">
         <v>1.49E-2</v>
@@ -3156,18 +3232,18 @@
         <v>0</v>
       </c>
       <c r="J16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="16">
         <v>1.49E-2</v>
@@ -3188,18 +3264,18 @@
         <v>0</v>
       </c>
       <c r="J17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="12">
         <v>2E-3</v>
@@ -3214,22 +3290,22 @@
         <v>0</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="17">
         <v>0</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="16">
         <v>1.4E-3</v>
@@ -3244,22 +3320,22 @@
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="14">
         <v>0</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="16">
         <v>1.4E-3</v>
@@ -3274,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="14">
         <v>0</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="12">
         <v>5.9999999999999995E-4</v>
@@ -3298,28 +3374,28 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="14">
         <v>0</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" s="17">
         <v>0</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="16">
         <v>-1E-3</v>
@@ -3328,7 +3404,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="14">
         <v>0</v>
@@ -3340,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
@@ -3534,7 +3610,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
@@ -3547,49 +3623,49 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="33"/>
       <c r="E1" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F1" s="33"/>
       <c r="G1" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="24">
         <v>7.5000000000000002E-4</v>
@@ -3598,24 +3674,24 @@
         <v>1.5E-3</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" s="24">
         <v>1E-3</v>
@@ -3624,24 +3700,24 @@
         <v>1E-3</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="24">
         <v>1E-3</v>
@@ -3650,24 +3726,24 @@
         <v>1E-3</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="24">
         <v>1E-3</v>
@@ -3676,48 +3752,48 @@
         <v>2E-3</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" s="24">
         <v>3.5000000000000001E-3</v>
@@ -3726,24 +3802,24 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="24">
         <v>2.5000000000000001E-4</v>
@@ -3752,24 +3828,24 @@
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" s="24">
         <v>1E-3</v>
@@ -3778,46 +3854,46 @@
         <v>1.5E-3</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="24">
         <v>2E-3</v>
@@ -3826,24 +3902,24 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B13" s="24">
         <v>5.0000000000000001E-4</v>
@@ -3852,53 +3928,53 @@
         <v>2E-3</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -3909,7 +3985,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" s="24">
         <v>1.6000000000000001E-3</v>
@@ -3918,45 +3994,45 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3964,7 +4040,7 @@
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
       <c r="D18" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
@@ -3973,7 +4049,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="24">
         <v>5.0000000000000001E-3</v>
@@ -3982,43 +4058,43 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
       <c r="G20" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="40"/>
       <c r="B21" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -4029,7 +4105,7 @@
     </row>
     <row r="22" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B22" s="24">
         <v>1E-3</v>
@@ -4038,24 +4114,24 @@
         <v>1E-3</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B23" s="24">
         <v>1E-3</v>
@@ -4064,74 +4140,74 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="25">
         <v>0</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" s="24">
         <v>2.0000000000000001E-4</v>
@@ -4140,24 +4216,24 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27" s="24">
         <v>2E-3</v>
@@ -4166,48 +4242,48 @@
         <v>2E-3</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" s="24">
         <v>1E-3</v>
@@ -4216,24 +4292,24 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" s="24">
         <v>2E-3</v>
@@ -4242,24 +4318,24 @@
         <v>2E-3</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="24">
         <v>1E-3</v>
@@ -4268,46 +4344,46 @@
         <v>2E-3</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="38"/>
       <c r="E32" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" s="24">
         <v>1.6000000000000001E-3</v>
@@ -4316,24 +4392,24 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B34" s="24">
         <v>1E-3</v>
@@ -4342,24 +4418,24 @@
         <v>1E-3</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" s="24">
         <v>2.8999999999999998E-3</v>
@@ -4368,24 +4444,24 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B36" s="25">
         <v>0</v>
@@ -4394,24 +4470,24 @@
         <v>1E-3</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B37" s="24">
         <v>1E-3</v>
@@ -4420,48 +4496,48 @@
         <v>1.5E-3</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" s="24">
         <v>1.25E-3</v>
@@ -4470,43 +4546,43 @@
         <v>1.25E-3</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" s="54"/>
       <c r="D40" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4521,148 +4597,148 @@
     </row>
     <row r="42" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="38"/>
       <c r="E42" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="22" t="s">
-        <v>84</v>
-      </c>
       <c r="G42" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
+        <v>91</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="38"/>
       <c r="E45" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
+        <v>78</v>
+      </c>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
     </row>
     <row r="49" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="40"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
       <c r="D49" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E49" s="44"/>
       <c r="F49" s="44"/>
